--- a/55-New Game Plus 新游戏+.xlsx
+++ b/55-New Game Plus 新游戏+.xlsx
@@ -665,14 +665,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1649,7 +1649,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1713,7 +1713,7 @@
   <sheetPr/>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
